--- a/Arduino ProgrammingCourses Arrangement 应用电子32081.xlsx
+++ b/Arduino ProgrammingCourses Arrangement 应用电子32081.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YI PING\Desktop\2021-2022-1 Arduino Programming\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YI PING\Documents\GitHub\Arduino-Tutorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B43FB0-7C6E-4AC6-BACC-088F42BDD65E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD8A634-F39A-4EDF-8557-CB57B7E4182A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{56D46586-203F-4DA5-8833-0738A3BCF6C0}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="106">
   <si>
     <t>Student ID(学号)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -790,6 +790,12 @@
     <xf numFmtId="49" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -797,12 +803,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2832,13 +2832,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="40.9" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
     </row>
     <row r="2" spans="1:5" ht="21" customHeight="1">
       <c r="A2" s="9" t="s">
@@ -3326,35 +3326,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="23.45" customHeight="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="48"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
     </row>
     <row r="2" spans="1:28" ht="19.149999999999999" customHeight="1">
       <c r="A2" s="9" t="s">
@@ -3450,19 +3450,19 @@
       <c r="C3" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="E3" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="F3" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="G3" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="H3" s="50" t="s">
+      <c r="D3" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="H3" s="47" t="s">
         <v>102</v>
       </c>
       <c r="I3" s="16"/>
@@ -3495,19 +3495,19 @@
       <c r="C4" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="E4" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="F4" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="G4" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="H4" s="50" t="s">
+      <c r="D4" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="G4" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="H4" s="47" t="s">
         <v>102</v>
       </c>
       <c r="I4" s="16"/>
@@ -3540,19 +3540,19 @@
       <c r="C5" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="E5" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="F5" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="G5" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="H5" s="50" t="s">
+      <c r="D5" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="H5" s="47" t="s">
         <v>102</v>
       </c>
       <c r="I5" s="16"/>
@@ -3585,19 +3585,19 @@
       <c r="C6" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="E6" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="F6" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="G6" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="H6" s="50" t="s">
+      <c r="D6" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="H6" s="47" t="s">
         <v>102</v>
       </c>
       <c r="I6" s="16"/>
@@ -3630,19 +3630,19 @@
       <c r="C7" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="E7" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="F7" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="G7" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="H7" s="50" t="s">
+      <c r="D7" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="H7" s="47" t="s">
         <v>102</v>
       </c>
       <c r="I7" s="16"/>
@@ -3675,19 +3675,19 @@
       <c r="C8" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="E8" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="F8" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="G8" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="H8" s="50" t="s">
+      <c r="D8" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="H8" s="47" t="s">
         <v>102</v>
       </c>
       <c r="I8" s="16"/>
@@ -3720,19 +3720,19 @@
       <c r="C9" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="E9" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="F9" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="G9" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="H9" s="50" t="s">
+      <c r="D9" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="H9" s="47" t="s">
         <v>102</v>
       </c>
       <c r="I9" s="16"/>
@@ -3765,19 +3765,19 @@
       <c r="C10" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="E10" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="F10" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="G10" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="H10" s="50" t="s">
+      <c r="D10" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="F10" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="H10" s="47" t="s">
         <v>102</v>
       </c>
       <c r="I10" s="16"/>
@@ -3810,19 +3810,19 @@
       <c r="C11" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="E11" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="F11" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="G11" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="H11" s="50" t="s">
+      <c r="D11" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="H11" s="47" t="s">
         <v>102</v>
       </c>
       <c r="I11" s="16"/>
@@ -3855,19 +3855,19 @@
       <c r="C12" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="E12" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="F12" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="G12" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="H12" s="50" t="s">
+      <c r="D12" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="F12" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="G12" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="H12" s="47" t="s">
         <v>102</v>
       </c>
       <c r="I12" s="16"/>
@@ -3900,19 +3900,19 @@
       <c r="C13" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="E13" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="F13" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="G13" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="H13" s="50" t="s">
+      <c r="D13" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="F13" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="H13" s="47" t="s">
         <v>102</v>
       </c>
       <c r="I13" s="16"/>
@@ -3945,19 +3945,19 @@
       <c r="C14" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="E14" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="F14" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="G14" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="H14" s="50" t="s">
+      <c r="D14" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="G14" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="H14" s="47" t="s">
         <v>102</v>
       </c>
       <c r="I14" s="16"/>
@@ -3990,19 +3990,19 @@
       <c r="C15" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="E15" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="F15" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="G15" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="H15" s="50" t="s">
+      <c r="D15" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="F15" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="G15" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="H15" s="47" t="s">
         <v>102</v>
       </c>
       <c r="I15" s="16"/>
@@ -4035,19 +4035,19 @@
       <c r="C16" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="E16" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="F16" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="G16" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="H16" s="50" t="s">
+      <c r="D16" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="H16" s="47" t="s">
         <v>102</v>
       </c>
       <c r="I16" s="16"/>
@@ -4080,19 +4080,19 @@
       <c r="C17" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="E17" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="F17" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="G17" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="H17" s="50" t="s">
+      <c r="D17" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="H17" s="47" t="s">
         <v>102</v>
       </c>
       <c r="I17" s="16"/>
@@ -4125,19 +4125,19 @@
       <c r="C18" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="E18" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="F18" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="G18" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="H18" s="50" t="s">
+      <c r="D18" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="F18" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="H18" s="47" t="s">
         <v>102</v>
       </c>
       <c r="I18" s="16"/>
@@ -4170,19 +4170,19 @@
       <c r="C19" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="E19" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="F19" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="G19" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="H19" s="50" t="s">
+      <c r="D19" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="G19" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="H19" s="47" t="s">
         <v>102</v>
       </c>
       <c r="I19" s="16"/>
@@ -4215,19 +4215,19 @@
       <c r="C20" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="E20" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="F20" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="G20" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="H20" s="50" t="s">
+      <c r="D20" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="G20" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="H20" s="47" t="s">
         <v>102</v>
       </c>
       <c r="I20" s="16"/>
@@ -4260,19 +4260,19 @@
       <c r="C21" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="E21" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="F21" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="G21" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="H21" s="50" t="s">
+      <c r="D21" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="H21" s="47" t="s">
         <v>102</v>
       </c>
       <c r="I21" s="16"/>
@@ -4305,19 +4305,19 @@
       <c r="C22" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="E22" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="F22" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="G22" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="H22" s="50" t="s">
+      <c r="D22" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="F22" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="G22" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="H22" s="47" t="s">
         <v>102</v>
       </c>
       <c r="I22" s="16"/>
@@ -4350,19 +4350,19 @@
       <c r="C23" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="E23" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="F23" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="G23" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="H23" s="50" t="s">
+      <c r="D23" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="E23" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="F23" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="G23" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="H23" s="47" t="s">
         <v>102</v>
       </c>
       <c r="I23" s="16"/>
@@ -4395,19 +4395,19 @@
       <c r="C24" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="E24" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="F24" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="G24" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="H24" s="50" t="s">
+      <c r="D24" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="G24" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="H24" s="47" t="s">
         <v>102</v>
       </c>
       <c r="I24" s="16"/>
@@ -4440,19 +4440,19 @@
       <c r="C25" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="E25" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="F25" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="G25" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="H25" s="50" t="s">
+      <c r="D25" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="F25" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="G25" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="H25" s="47" t="s">
         <v>102</v>
       </c>
       <c r="I25" s="16"/>
@@ -4485,19 +4485,19 @@
       <c r="C26" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="D26" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="E26" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="F26" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="G26" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="H26" s="50" t="s">
+      <c r="D26" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="F26" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="G26" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="H26" s="47" t="s">
         <v>102</v>
       </c>
       <c r="I26" s="16"/>
@@ -4530,19 +4530,19 @@
       <c r="C27" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="E27" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="F27" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="G27" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="H27" s="50" t="s">
+      <c r="D27" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="E27" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="F27" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="G27" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="H27" s="47" t="s">
         <v>102</v>
       </c>
       <c r="I27" s="16"/>
@@ -4575,19 +4575,19 @@
       <c r="C28" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="D28" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="E28" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="F28" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="G28" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="H28" s="50" t="s">
+      <c r="D28" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="F28" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="G28" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="H28" s="47" t="s">
         <v>102</v>
       </c>
       <c r="I28" s="16"/>
@@ -4620,19 +4620,19 @@
       <c r="C29" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="D29" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="E29" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="F29" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="G29" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="H29" s="50" t="s">
+      <c r="D29" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="E29" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="F29" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="G29" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="H29" s="47" t="s">
         <v>102</v>
       </c>
       <c r="I29" s="3"/>
@@ -4665,19 +4665,19 @@
       <c r="C30" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="D30" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="E30" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="F30" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="G30" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="H30" s="50" t="s">
+      <c r="D30" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="E30" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="F30" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="G30" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="H30" s="47" t="s">
         <v>102</v>
       </c>
       <c r="I30" s="3"/>
@@ -4710,19 +4710,19 @@
       <c r="C31" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="D31" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="E31" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="F31" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="G31" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="H31" s="50" t="s">
+      <c r="D31" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="E31" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="F31" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="G31" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="H31" s="47" t="s">
         <v>102</v>
       </c>
       <c r="I31" s="3"/>
@@ -4755,19 +4755,19 @@
       <c r="C32" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="D32" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="E32" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="F32" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="G32" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="H32" s="50" t="s">
+      <c r="D32" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="E32" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="F32" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="G32" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="H32" s="47" t="s">
         <v>102</v>
       </c>
       <c r="I32" s="3"/>
@@ -4800,19 +4800,19 @@
       <c r="C33" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="D33" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="E33" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="F33" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="G33" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="H33" s="50" t="s">
+      <c r="D33" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="E33" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="F33" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="G33" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="H33" s="47" t="s">
         <v>102</v>
       </c>
       <c r="I33" s="3"/>
@@ -4845,19 +4845,19 @@
       <c r="C34" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="D34" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="E34" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="F34" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="G34" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="H34" s="50" t="s">
+      <c r="D34" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="E34" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="F34" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="G34" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="H34" s="47" t="s">
         <v>102</v>
       </c>
       <c r="I34" s="3"/>
@@ -4890,19 +4890,19 @@
       <c r="C35" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="D35" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="E35" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="F35" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="G35" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="H35" s="50" t="s">
+      <c r="D35" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="E35" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="F35" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="G35" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="H35" s="47" t="s">
         <v>102</v>
       </c>
       <c r="I35" s="3"/>
@@ -4935,19 +4935,19 @@
       <c r="C36" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="D36" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="E36" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="F36" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="G36" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="H36" s="50" t="s">
+      <c r="D36" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="E36" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="F36" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="G36" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="H36" s="47" t="s">
         <v>102</v>
       </c>
       <c r="I36" s="3"/>
@@ -4998,14 +4998,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="46.5" customHeight="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
     </row>
     <row r="2" spans="1:7" ht="39" customHeight="1">
       <c r="A2" s="5" t="s">
@@ -5107,8 +5107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06EBC456-0353-452F-B62B-0A1B41F55AD0}">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5128,26 +5128,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="40.9" customHeight="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
     </row>
     <row r="2" spans="1:18" ht="66.75" customHeight="1">
       <c r="A2" s="5" t="s">
@@ -5216,7 +5216,7 @@
         <v>35</v>
       </c>
       <c r="D3" s="37"/>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="48" t="s">
         <v>102</v>
       </c>
       <c r="F3" s="22"/>
@@ -5244,7 +5244,7 @@
         <v>37</v>
       </c>
       <c r="D4" s="37"/>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="48" t="s">
         <v>102</v>
       </c>
       <c r="F4" s="21"/>
@@ -5272,7 +5272,7 @@
         <v>39</v>
       </c>
       <c r="D5" s="37"/>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="48" t="s">
         <v>102</v>
       </c>
       <c r="F5" s="21"/>
@@ -5300,7 +5300,7 @@
         <v>41</v>
       </c>
       <c r="D6" s="37"/>
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="48" t="s">
         <v>102</v>
       </c>
       <c r="F6" s="21"/>
@@ -5328,7 +5328,7 @@
         <v>43</v>
       </c>
       <c r="D7" s="37"/>
-      <c r="E7" s="51" t="s">
+      <c r="E7" s="48" t="s">
         <v>102</v>
       </c>
       <c r="F7" s="21"/>
@@ -5356,7 +5356,7 @@
         <v>45</v>
       </c>
       <c r="D8" s="37"/>
-      <c r="E8" s="51" t="s">
+      <c r="E8" s="48" t="s">
         <v>102</v>
       </c>
       <c r="F8" s="21"/>
@@ -5384,7 +5384,7 @@
         <v>47</v>
       </c>
       <c r="D9" s="37"/>
-      <c r="E9" s="51" t="s">
+      <c r="E9" s="48" t="s">
         <v>102</v>
       </c>
       <c r="F9" s="21"/>
@@ -5412,7 +5412,7 @@
         <v>49</v>
       </c>
       <c r="D10" s="37"/>
-      <c r="E10" s="51" t="s">
+      <c r="E10" s="48" t="s">
         <v>102</v>
       </c>
       <c r="F10" s="21"/>
@@ -5440,7 +5440,7 @@
         <v>51</v>
       </c>
       <c r="D11" s="37"/>
-      <c r="E11" s="51" t="s">
+      <c r="E11" s="48" t="s">
         <v>102</v>
       </c>
       <c r="F11" s="21"/>
@@ -5468,7 +5468,7 @@
         <v>53</v>
       </c>
       <c r="D12" s="37"/>
-      <c r="E12" s="51" t="s">
+      <c r="E12" s="48" t="s">
         <v>102</v>
       </c>
       <c r="F12" s="21"/>
@@ -5522,7 +5522,7 @@
         <v>57</v>
       </c>
       <c r="D14" s="37"/>
-      <c r="E14" s="51" t="s">
+      <c r="E14" s="48" t="s">
         <v>102</v>
       </c>
       <c r="F14" s="21"/>
@@ -5550,7 +5550,7 @@
         <v>59</v>
       </c>
       <c r="D15" s="37"/>
-      <c r="E15" s="51" t="s">
+      <c r="E15" s="48" t="s">
         <v>102</v>
       </c>
       <c r="F15" s="21"/>
@@ -5578,7 +5578,7 @@
         <v>61</v>
       </c>
       <c r="D16" s="37"/>
-      <c r="E16" s="51" t="s">
+      <c r="E16" s="48" t="s">
         <v>102</v>
       </c>
       <c r="F16" s="21"/>
@@ -5606,7 +5606,7 @@
         <v>63</v>
       </c>
       <c r="D17" s="37"/>
-      <c r="E17" s="51" t="s">
+      <c r="E17" s="48" t="s">
         <v>102</v>
       </c>
       <c r="F17" s="21"/>
@@ -5660,7 +5660,7 @@
         <v>67</v>
       </c>
       <c r="D19" s="37"/>
-      <c r="E19" s="51" t="s">
+      <c r="E19" s="48" t="s">
         <v>102</v>
       </c>
       <c r="F19" s="21"/>
@@ -5688,7 +5688,7 @@
         <v>69</v>
       </c>
       <c r="D20" s="37"/>
-      <c r="E20" s="51" t="s">
+      <c r="E20" s="48" t="s">
         <v>102</v>
       </c>
       <c r="F20" s="21"/>
@@ -5716,7 +5716,7 @@
         <v>71</v>
       </c>
       <c r="D21" s="37"/>
-      <c r="E21" s="51" t="s">
+      <c r="E21" s="48" t="s">
         <v>102</v>
       </c>
       <c r="F21" s="21"/>
@@ -5744,7 +5744,7 @@
         <v>73</v>
       </c>
       <c r="D22" s="37"/>
-      <c r="E22" s="51" t="s">
+      <c r="E22" s="48" t="s">
         <v>102</v>
       </c>
       <c r="F22" s="21"/>
@@ -5772,7 +5772,7 @@
         <v>75</v>
       </c>
       <c r="D23" s="37"/>
-      <c r="E23" s="51" t="s">
+      <c r="E23" s="48" t="s">
         <v>102</v>
       </c>
       <c r="F23" s="21"/>
@@ -5800,7 +5800,7 @@
         <v>77</v>
       </c>
       <c r="D24" s="37"/>
-      <c r="E24" s="51" t="s">
+      <c r="E24" s="48" t="s">
         <v>102</v>
       </c>
       <c r="F24" s="21"/>
@@ -5828,7 +5828,7 @@
         <v>79</v>
       </c>
       <c r="D25" s="37"/>
-      <c r="E25" s="51" t="s">
+      <c r="E25" s="48" t="s">
         <v>102</v>
       </c>
       <c r="F25" s="21"/>
@@ -5856,7 +5856,7 @@
         <v>81</v>
       </c>
       <c r="D26" s="37"/>
-      <c r="E26" s="51" t="s">
+      <c r="E26" s="48" t="s">
         <v>102</v>
       </c>
       <c r="F26" s="21"/>
@@ -5884,7 +5884,9 @@
         <v>83</v>
       </c>
       <c r="D27" s="37"/>
-      <c r="E27" s="21"/>
+      <c r="E27" s="48" t="s">
+        <v>102</v>
+      </c>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -5936,7 +5938,7 @@
         <v>87</v>
       </c>
       <c r="D29" s="37"/>
-      <c r="E29" s="51" t="s">
+      <c r="E29" s="48" t="s">
         <v>102</v>
       </c>
       <c r="F29" s="44"/>
@@ -5988,7 +5990,7 @@
         <v>91</v>
       </c>
       <c r="D31" s="37"/>
-      <c r="E31" s="51" t="s">
+      <c r="E31" s="48" t="s">
         <v>102</v>
       </c>
       <c r="F31" s="45"/>
@@ -6015,7 +6017,7 @@
         <v>93</v>
       </c>
       <c r="D32" s="37"/>
-      <c r="E32" s="51" t="s">
+      <c r="E32" s="48" t="s">
         <v>102</v>
       </c>
       <c r="F32" s="45"/>
@@ -6042,7 +6044,7 @@
         <v>95</v>
       </c>
       <c r="D33" s="37"/>
-      <c r="E33" s="51" t="s">
+      <c r="E33" s="48" t="s">
         <v>102</v>
       </c>
       <c r="F33" s="45"/>
@@ -6069,7 +6071,7 @@
         <v>97</v>
       </c>
       <c r="D34" s="37"/>
-      <c r="E34" s="51" t="s">
+      <c r="E34" s="48" t="s">
         <v>102</v>
       </c>
       <c r="F34" s="45"/>
@@ -6096,7 +6098,7 @@
         <v>99</v>
       </c>
       <c r="D35" s="37"/>
-      <c r="E35" s="51" t="s">
+      <c r="E35" s="48" t="s">
         <v>102</v>
       </c>
       <c r="F35" s="45"/>
@@ -6123,7 +6125,7 @@
         <v>101</v>
       </c>
       <c r="D36" s="37"/>
-      <c r="E36" s="51" t="s">
+      <c r="E36" s="48" t="s">
         <v>102</v>
       </c>
       <c r="F36" s="45"/>
@@ -6150,6 +6152,66 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Invited_Students xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <IsNotebookLocked xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <Self_Registration_Enabled xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <FolderType xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <CultureName xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <Student_Groups xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Student_Groups>
+    <DefaultSectionNames xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <Templates xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <NotebookType xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <Teachers xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Teachers>
+    <TeamsChannelId xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <Invited_Teachers xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <Math_Settings xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <Has_Teacher_Only_SectionGroup xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <Owner xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <Students xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Students>
+    <Distribution_Groups xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <AppVersion xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <LMS_Mappings xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <Is_Collaboration_Space_Locked xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010033F188CDD829674AAD05B93C069E2813" ma:contentTypeVersion="25" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="12f87a5caa000e69b2f4c8c0b3e42f66">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="773ac416-4a36-402f-a3b6-d25dea329997" xmlns:ns4="63d2042b-7b91-46d4-baa3-a67d3669a720" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f06fb7f16fd173aa8b0bb68049ad5879" ns3:_="" ns4:_="">
     <xsd:import namespace="773ac416-4a36-402f-a3b6-d25dea329997"/>
@@ -6508,67 +6570,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8B63EFD-93A5-43DC-AEF0-DFD60352CEE8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="63d2042b-7b91-46d4-baa3-a67d3669a720"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="773ac416-4a36-402f-a3b6-d25dea329997"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Invited_Students xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <IsNotebookLocked xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <Self_Registration_Enabled xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <FolderType xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <CultureName xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <Student_Groups xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Student_Groups>
-    <DefaultSectionNames xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <Templates xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <NotebookType xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <Teachers xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Teachers>
-    <TeamsChannelId xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <Invited_Teachers xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <Math_Settings xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <Has_Teacher_Only_SectionGroup xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <Owner xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <Students xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Students>
-    <Distribution_Groups xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <AppVersion xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <LMS_Mappings xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <Is_Collaboration_Space_Locked xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1AFF0ECA-8F3D-4871-93DE-8F766A9E7256}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6741670B-461B-4661-A53C-BD46BBECF45E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6585,29 +6612,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1AFF0ECA-8F3D-4871-93DE-8F766A9E7256}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8B63EFD-93A5-43DC-AEF0-DFD60352CEE8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="63d2042b-7b91-46d4-baa3-a67d3669a720"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="773ac416-4a36-402f-a3b6-d25dea329997"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Arduino ProgrammingCourses Arrangement 应用电子32081.xlsx
+++ b/Arduino ProgrammingCourses Arrangement 应用电子32081.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo-InterOffice\Documents\GitHub\Arduino-Tutorial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/radiomanyi/Documents/GitHub/Arduino-Tutorial/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2538B5-0FEE-4F9E-86E0-7912DC9D7394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5D0429-08DB-A94B-A862-C4F991C7A637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{56D46586-203F-4DA5-8833-0738A3BCF6C0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="2" xr2:uid="{56D46586-203F-4DA5-8833-0738A3BCF6C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic Information 应用电子31981" sheetId="1" r:id="rId1"/>
@@ -410,18 +410,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>30/34</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>29/34</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>24/34</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>6/6</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -457,28 +445,32 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Mr. Ma Jiajun, Mr. Wu Kaiwen, Mr. Ye Jianfeng, Mr. Zhou Geyu</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Missing(Mr. Bian Zeyu absence from class) 33 intotal</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Mr. Lv Guanhua,Mr. Ma Jiajun, Mr.Shao Shuai, Mr. Wu Kaiwen, Mr. Ye Jianfeng, Mr. Yin Xinjun, Mr Zhang Lingjie, Mr. Zhang Siyu, Mr. Zhou Geyu</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mr. Lv Guanhua, Mr.Shao Shuai, Mr. Ye Jianfeng, Mr. Yin Xinjun, Mr Zhang Lingjie,,Mr. Zhang Siyu, Mr. Zhou Geyu</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>26/34</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mr. Lv Guanhua,  Mr. Xu Dongjian, Mr. Ye Jianfeng</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>Mr. Lv Guanhua,  Mr. Xu Dongjian,</t>
+  </si>
+  <si>
+    <t>Mr. Lv Guanhua, Mr.Shao Shuai, Mr. Yin Xinjun, Mr Zhang Lingjie,,Mr. Zhang Siyu, Mr. Zhou Geyu</t>
+  </si>
+  <si>
+    <t>Mr. Lv Guanhua,Mr. Ma Jiajun, Mr.Shao Shuai, Mr. Wu Kaiwen, Mr. Yin Xinjun, Mr Zhang Lingjie, Mr. Zhang Siyu, Mr. Zhou Geyu</t>
+  </si>
+  <si>
+    <t>27/34</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>31/34</t>
+  </si>
+  <si>
+    <t>Mr. Ma Jiajun, Mr. Wu Kaiwen, Mr. Zhou Geyu</t>
+  </si>
+  <si>
+    <t>30/34</t>
   </si>
 </sst>
 </file>
@@ -486,14 +478,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="[$-1809]dd\ mmmm\ yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="[$-1809]dd\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -501,13 +493,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -515,7 +507,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -531,7 +523,7 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -540,7 +532,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -555,7 +547,7 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -564,7 +556,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -587,7 +579,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -603,21 +595,21 @@
       <b/>
       <sz val="8"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -626,21 +618,21 @@
       <b/>
       <sz val="8"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -653,7 +645,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -667,20 +659,20 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -870,7 +862,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -903,15 +895,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -921,7 +904,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -942,18 +925,27 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1687,7 +1679,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1989,24 +1981,24 @@
       <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="17.6640625" customWidth="1"/>
     <col min="3" max="3" width="18.33203125" customWidth="1"/>
-    <col min="4" max="4" width="20.88671875" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:5" ht="41" customHeight="1">
+      <c r="A1" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-    </row>
-    <row r="2" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+    </row>
+    <row r="2" spans="1:5" ht="21" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
@@ -2023,7 +2015,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="20" customHeight="1">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -2036,7 +2028,7 @@
       <c r="D3" s="36"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="20" customHeight="1">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -2049,7 +2041,7 @@
       <c r="D4" s="36"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="20" customHeight="1">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -2062,7 +2054,7 @@
       <c r="D5" s="36"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="20" customHeight="1">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -2075,7 +2067,7 @@
       <c r="D6" s="36"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="20" customHeight="1">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -2088,7 +2080,7 @@
       <c r="D7" s="36"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="20" customHeight="1">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -2101,7 +2093,7 @@
       <c r="D8" s="36"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="20" customHeight="1">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -2114,7 +2106,7 @@
       <c r="D9" s="36"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="20" customHeight="1">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -2127,7 +2119,7 @@
       <c r="D10" s="36"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="20" customHeight="1">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -2140,7 +2132,7 @@
       <c r="D11" s="36"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="20" customHeight="1">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -2153,7 +2145,7 @@
       <c r="D12" s="4"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="20" customHeight="1">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -2166,7 +2158,7 @@
       <c r="D13" s="36"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="20" customHeight="1">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -2179,7 +2171,7 @@
       <c r="D14" s="36"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="20" customHeight="1">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -2192,7 +2184,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="20" customHeight="1">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -2205,7 +2197,7 @@
       <c r="D16" s="36"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="20" customHeight="1">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -2218,7 +2210,7 @@
       <c r="D17" s="36"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="20" customHeight="1">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -2231,7 +2223,7 @@
       <c r="D18" s="36"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="20" customHeight="1">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -2244,7 +2236,7 @@
       <c r="D19" s="36"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="20" customHeight="1">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -2257,7 +2249,7 @@
       <c r="D20" s="36"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="20" customHeight="1">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -2270,7 +2262,7 @@
       <c r="D21" s="36"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="20" customHeight="1">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -2283,7 +2275,7 @@
       <c r="D22" s="36"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="20" customHeight="1">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -2296,7 +2288,7 @@
       <c r="D23" s="36"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="20" customHeight="1">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -2309,7 +2301,7 @@
       <c r="D24" s="36"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="20" customHeight="1">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -2322,7 +2314,7 @@
       <c r="D25" s="36"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="20" customHeight="1">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -2335,7 +2327,7 @@
       <c r="D26" s="36"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="20" customHeight="1">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -2348,7 +2340,7 @@
       <c r="D27" s="36"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="20" customHeight="1">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -2361,7 +2353,7 @@
       <c r="D28" s="36"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="20" customHeight="1">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -2374,7 +2366,7 @@
       <c r="D29" s="37"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="20" customHeight="1">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -2387,7 +2379,7 @@
       <c r="D30" s="38"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="20" customHeight="1">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -2400,7 +2392,7 @@
       <c r="D31" s="38"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="20" customHeight="1">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -2413,7 +2405,7 @@
       <c r="D32" s="38"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="20" customHeight="1">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -2426,7 +2418,7 @@
       <c r="D33" s="38"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="20" customHeight="1">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -2439,7 +2431,7 @@
       <c r="D34" s="38"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="20" customHeight="1">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -2452,7 +2444,7 @@
       <c r="D35" s="38"/>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="20" customHeight="1">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -2484,45 +2476,45 @@
       <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="27" width="3.5546875" customWidth="1"/>
+    <col min="4" max="27" width="3.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:28" ht="23.5" customHeight="1">
+      <c r="A1" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
-      <c r="Z1" s="45"/>
-      <c r="AA1" s="45"/>
-    </row>
-    <row r="2" spans="1:28" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="57"/>
+      <c r="X1" s="57"/>
+      <c r="Y1" s="57"/>
+      <c r="Z1" s="57"/>
+      <c r="AA1" s="57"/>
+    </row>
+    <row r="2" spans="1:28" ht="19.25" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
@@ -2606,7 +2598,7 @@
       </c>
       <c r="AB2" s="1"/>
     </row>
-    <row r="3" spans="1:28" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -2689,7 +2681,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -2772,7 +2764,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -2855,7 +2847,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -2938,7 +2930,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -3021,7 +3013,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -3104,7 +3096,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -3187,7 +3179,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -3270,7 +3262,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -3353,7 +3345,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -3436,7 +3428,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -3519,7 +3511,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -3602,7 +3594,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -3685,7 +3677,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -3768,7 +3760,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -3851,7 +3843,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -3934,7 +3926,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -4017,7 +4009,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -4100,7 +4092,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -4183,7 +4175,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -4266,7 +4258,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -4349,7 +4341,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -4432,7 +4424,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -4515,7 +4507,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -4598,7 +4590,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -4681,7 +4673,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:27" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -4764,7 +4756,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:27" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -4847,7 +4839,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:27" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -4930,7 +4922,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:27" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -5013,7 +5005,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="1:27" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -5096,7 +5088,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:27" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -5179,7 +5171,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:27" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -5262,7 +5254,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="1:27" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -5345,7 +5337,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:27" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -5442,33 +5434,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{375647A9-497B-42E5-BA71-EBD6FD4DD3F3}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="2" width="17.6640625" customWidth="1"/>
     <col min="3" max="3" width="20.33203125" customWidth="1"/>
     <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" customWidth="1"/>
-    <col min="7" max="7" width="131.5546875" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" customWidth="1"/>
+    <col min="7" max="7" width="131.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:7" ht="46.5" customHeight="1">
+      <c r="A1" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-    </row>
-    <row r="2" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+    </row>
+    <row r="2" spans="1:7" ht="39" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
@@ -5487,11 +5479,11 @@
       <c r="F2" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="48" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="45" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="50" customHeight="1">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -5505,16 +5497,16 @@
         <v>105</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="F3" s="50">
+        <v>121</v>
+      </c>
+      <c r="F3" s="47">
         <v>0.91</v>
       </c>
-      <c r="G3" s="51" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="48" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="62.25" customHeight="1">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -5528,16 +5520,16 @@
         <v>107</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="F4" s="50">
-        <v>0.85</v>
-      </c>
-      <c r="G4" s="51" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="F4" s="47">
+        <v>0.88</v>
+      </c>
+      <c r="G4" s="48" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="54.75" customHeight="1">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -5551,16 +5543,16 @@
         <v>109</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="F5" s="50">
-        <v>0.85</v>
-      </c>
-      <c r="G5" s="51" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="F5" s="47">
+        <v>0.91</v>
+      </c>
+      <c r="G5" s="48" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="54.75" customHeight="1">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -5574,16 +5566,16 @@
         <v>111</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="F6" s="50">
-        <v>0.74</v>
-      </c>
-      <c r="G6" s="51" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="F6" s="47">
+        <v>0.79</v>
+      </c>
+      <c r="G6" s="48" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="54.75" customHeight="1">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -5597,16 +5589,16 @@
         <v>113</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="F7" s="50">
-        <v>0.71</v>
-      </c>
-      <c r="G7" s="51" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="47">
+        <v>0.74</v>
+      </c>
+      <c r="G7" s="48" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="50" customHeight="1">
       <c r="A8" s="7">
         <v>4</v>
       </c>
@@ -5617,17 +5609,17 @@
         <v>44863</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="E8" s="47" t="s">
-        <v>117</v>
-      </c>
-      <c r="F8" s="50">
+        <v>116</v>
+      </c>
+      <c r="E8" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="47">
         <v>1</v>
       </c>
-      <c r="G8" s="49"/>
-    </row>
-    <row r="9" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="46"/>
+    </row>
+    <row r="9" spans="1:7" ht="50" customHeight="1">
       <c r="A9" s="7">
         <v>5</v>
       </c>
@@ -5635,18 +5627,18 @@
         <v>17</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="E9" s="47" t="s">
-        <v>117</v>
-      </c>
-      <c r="F9" s="50">
+        <v>115</v>
+      </c>
+      <c r="E9" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="F9" s="47">
         <v>1</v>
       </c>
-      <c r="G9" s="49"/>
+      <c r="G9" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5665,48 +5657,48 @@
   </sheetPr>
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" style="21" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" style="21" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" style="20" customWidth="1"/>
     <col min="6" max="9" width="10.33203125" style="21" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="21" customWidth="1"/>
-    <col min="11" max="12" width="8.88671875" style="21" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="21" customWidth="1"/>
+    <col min="11" max="12" width="8.83203125" style="21" customWidth="1"/>
     <col min="13" max="13" width="10.6640625" style="20" customWidth="1"/>
     <col min="14" max="14" width="9.6640625" style="20" customWidth="1"/>
     <col min="15" max="16" width="10.6640625" style="20" customWidth="1"/>
     <col min="17" max="17" width="44.33203125" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:17" ht="41" customHeight="1">
+      <c r="A1" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-    </row>
-    <row r="2" spans="1:17" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+    </row>
+    <row r="2" spans="1:17" ht="66.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -5738,19 +5730,19 @@
         <v>20</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L2" s="15" t="s">
         <v>21</v>
       </c>
       <c r="M2" s="24" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="N2" s="28" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="O2" s="28" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="P2" s="17" t="s">
         <v>23</v>
@@ -5759,7 +5751,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="25" customHeight="1">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -5811,7 +5803,7 @@
       <c r="P3" s="29"/>
       <c r="Q3" s="22"/>
     </row>
-    <row r="4" spans="1:17" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="25" customHeight="1">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -5863,7 +5855,7 @@
       <c r="P4" s="30"/>
       <c r="Q4" s="22"/>
     </row>
-    <row r="5" spans="1:17" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="25" customHeight="1">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -5915,7 +5907,7 @@
       <c r="P5" s="30"/>
       <c r="Q5" s="22"/>
     </row>
-    <row r="6" spans="1:17" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="25" customHeight="1">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -5957,7 +5949,7 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="N6" s="52">
+      <c r="N6" s="49">
         <v>40</v>
       </c>
       <c r="O6" s="35">
@@ -5967,7 +5959,7 @@
       <c r="P6" s="30"/>
       <c r="Q6" s="22"/>
     </row>
-    <row r="7" spans="1:17" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="25" customHeight="1">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -6019,7 +6011,7 @@
       <c r="P7" s="30"/>
       <c r="Q7" s="22"/>
     </row>
-    <row r="8" spans="1:17" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="25" customHeight="1">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -6061,7 +6053,7 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="N8" s="52">
+      <c r="N8" s="49">
         <v>39</v>
       </c>
       <c r="O8" s="35">
@@ -6071,7 +6063,7 @@
       <c r="P8" s="30"/>
       <c r="Q8" s="22"/>
     </row>
-    <row r="9" spans="1:17" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="25" customHeight="1">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -6113,7 +6105,7 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="N9" s="52">
+      <c r="N9" s="49">
         <v>54</v>
       </c>
       <c r="O9" s="35">
@@ -6123,7 +6115,7 @@
       <c r="P9" s="30"/>
       <c r="Q9" s="22"/>
     </row>
-    <row r="10" spans="1:17" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="25" customHeight="1">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -6175,7 +6167,7 @@
       <c r="P10" s="30"/>
       <c r="Q10" s="25"/>
     </row>
-    <row r="11" spans="1:17" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="25" customHeight="1">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -6227,7 +6219,7 @@
       <c r="P11" s="30"/>
       <c r="Q11" s="22"/>
     </row>
-    <row r="12" spans="1:17" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="25" customHeight="1">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -6269,7 +6261,7 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="N12" s="52">
+      <c r="N12" s="49">
         <v>31</v>
       </c>
       <c r="O12" s="35">
@@ -6279,7 +6271,7 @@
       <c r="P12" s="30"/>
       <c r="Q12" s="22"/>
     </row>
-    <row r="13" spans="1:17" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="25" customHeight="1">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -6321,7 +6313,7 @@
         <f t="shared" si="1"/>
         <v>24.5</v>
       </c>
-      <c r="N13" s="52">
+      <c r="N13" s="49">
         <v>55</v>
       </c>
       <c r="O13" s="35">
@@ -6331,7 +6323,7 @@
       <c r="P13" s="30"/>
       <c r="Q13" s="22"/>
     </row>
-    <row r="14" spans="1:17" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="25" customHeight="1">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -6373,7 +6365,7 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="N14" s="52">
+      <c r="N14" s="49">
         <v>46</v>
       </c>
       <c r="O14" s="35">
@@ -6383,7 +6375,7 @@
       <c r="P14" s="30"/>
       <c r="Q14" s="22"/>
     </row>
-    <row r="15" spans="1:17" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="25" customHeight="1">
       <c r="A15" s="6">
         <v>13</v>
       </c>
@@ -6435,7 +6427,7 @@
       <c r="P15" s="30"/>
       <c r="Q15" s="22"/>
     </row>
-    <row r="16" spans="1:17" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="25" customHeight="1">
       <c r="A16" s="6">
         <v>14</v>
       </c>
@@ -6477,17 +6469,17 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="N16" s="52">
+      <c r="N16" s="49">
         <v>52</v>
       </c>
-      <c r="O16" s="55">
+      <c r="O16" s="52">
         <f t="shared" si="2"/>
         <v>57.199999999999996</v>
       </c>
       <c r="P16" s="30"/>
       <c r="Q16" s="22"/>
     </row>
-    <row r="17" spans="1:17" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="25" customHeight="1">
       <c r="A17" s="6">
         <v>15</v>
       </c>
@@ -6529,7 +6521,7 @@
         <f t="shared" si="1"/>
         <v>24.5</v>
       </c>
-      <c r="N17" s="52">
+      <c r="N17" s="49">
         <v>47</v>
       </c>
       <c r="O17" s="35">
@@ -6539,7 +6531,7 @@
       <c r="P17" s="30"/>
       <c r="Q17" s="22"/>
     </row>
-    <row r="18" spans="1:17" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="25" customHeight="1">
       <c r="A18" s="6">
         <v>16</v>
       </c>
@@ -6552,10 +6544,10 @@
       <c r="D18" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="E18" s="56">
+      <c r="E18" s="53">
         <v>0</v>
       </c>
-      <c r="F18" s="56">
+      <c r="F18" s="53">
         <v>0</v>
       </c>
       <c r="G18" s="18">
@@ -6581,7 +6573,7 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="N18" s="52">
+      <c r="N18" s="49">
         <v>57</v>
       </c>
       <c r="O18" s="35">
@@ -6591,7 +6583,7 @@
       <c r="P18" s="30"/>
       <c r="Q18" s="22"/>
     </row>
-    <row r="19" spans="1:17" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="25" customHeight="1">
       <c r="A19" s="6">
         <v>17</v>
       </c>
@@ -6613,10 +6605,10 @@
       <c r="G19" s="43">
         <v>90</v>
       </c>
-      <c r="H19" s="56">
+      <c r="H19" s="53">
         <v>0</v>
       </c>
-      <c r="I19" s="56">
+      <c r="I19" s="53">
         <v>0</v>
       </c>
       <c r="J19" s="26">
@@ -6633,7 +6625,7 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="N19" s="52">
+      <c r="N19" s="49">
         <v>46</v>
       </c>
       <c r="O19" s="35">
@@ -6643,7 +6635,7 @@
       <c r="P19" s="30"/>
       <c r="Q19" s="22"/>
     </row>
-    <row r="20" spans="1:17" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="25" customHeight="1">
       <c r="A20" s="6">
         <v>18</v>
       </c>
@@ -6685,7 +6677,7 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="N20" s="52">
+      <c r="N20" s="49">
         <v>42</v>
       </c>
       <c r="O20" s="35">
@@ -6695,7 +6687,7 @@
       <c r="P20" s="30"/>
       <c r="Q20" s="22"/>
     </row>
-    <row r="21" spans="1:17" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="25" customHeight="1">
       <c r="A21" s="6">
         <v>19</v>
       </c>
@@ -6737,7 +6729,7 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="N21" s="52">
+      <c r="N21" s="49">
         <v>55</v>
       </c>
       <c r="O21" s="35">
@@ -6747,7 +6739,7 @@
       <c r="P21" s="30"/>
       <c r="Q21" s="22"/>
     </row>
-    <row r="22" spans="1:17" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="25" customHeight="1">
       <c r="A22" s="6">
         <v>20</v>
       </c>
@@ -6789,7 +6781,7 @@
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="N22" s="53">
+      <c r="N22" s="50">
         <v>67</v>
       </c>
       <c r="O22" s="35">
@@ -6799,7 +6791,7 @@
       <c r="P22" s="30"/>
       <c r="Q22" s="22"/>
     </row>
-    <row r="23" spans="1:17" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="25" customHeight="1">
       <c r="A23" s="6">
         <v>21</v>
       </c>
@@ -6851,7 +6843,7 @@
       <c r="P23" s="30"/>
       <c r="Q23" s="22"/>
     </row>
-    <row r="24" spans="1:17" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="25" customHeight="1">
       <c r="A24" s="6">
         <v>22</v>
       </c>
@@ -6903,7 +6895,7 @@
       <c r="P24" s="30"/>
       <c r="Q24" s="22"/>
     </row>
-    <row r="25" spans="1:17" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="25" customHeight="1">
       <c r="A25" s="6">
         <v>23</v>
       </c>
@@ -6945,7 +6937,7 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="N25" s="52">
+      <c r="N25" s="49">
         <v>52</v>
       </c>
       <c r="O25" s="35">
@@ -6955,7 +6947,7 @@
       <c r="P25" s="30"/>
       <c r="Q25" s="22"/>
     </row>
-    <row r="26" spans="1:17" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="25" customHeight="1">
       <c r="A26" s="6">
         <v>24</v>
       </c>
@@ -6974,7 +6966,7 @@
       <c r="F26" s="18">
         <v>90</v>
       </c>
-      <c r="G26" s="56">
+      <c r="G26" s="53">
         <v>0</v>
       </c>
       <c r="H26" s="18">
@@ -6997,7 +6989,7 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="N26" s="52">
+      <c r="N26" s="49">
         <v>31</v>
       </c>
       <c r="O26" s="35">
@@ -7007,7 +6999,7 @@
       <c r="P26" s="30"/>
       <c r="Q26" s="22"/>
     </row>
-    <row r="27" spans="1:17" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="25" customHeight="1">
       <c r="A27" s="6">
         <v>25</v>
       </c>
@@ -7059,7 +7051,7 @@
       <c r="P27" s="30"/>
       <c r="Q27" s="22"/>
     </row>
-    <row r="28" spans="1:17" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="25" customHeight="1">
       <c r="A28" s="6">
         <v>26</v>
       </c>
@@ -7075,21 +7067,21 @@
       <c r="E28" s="18">
         <v>90</v>
       </c>
-      <c r="F28" s="57">
-        <v>0</v>
-      </c>
-      <c r="G28" s="57">
-        <v>0</v>
-      </c>
-      <c r="H28" s="57">
-        <v>0</v>
-      </c>
-      <c r="I28" s="57">
-        <v>0</v>
+      <c r="F28" s="59">
+        <v>60</v>
+      </c>
+      <c r="G28" s="59">
+        <v>60</v>
+      </c>
+      <c r="H28" s="59">
+        <v>60</v>
+      </c>
+      <c r="I28" s="59">
+        <v>60</v>
       </c>
       <c r="J28" s="26">
         <f t="shared" si="0"/>
-        <v>5.3999999999999995</v>
+        <v>19.8</v>
       </c>
       <c r="K28" s="40">
         <v>80</v>
@@ -7101,17 +7093,17 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="N28" s="52">
+      <c r="N28" s="49">
         <v>27</v>
       </c>
-      <c r="O28" s="55">
+      <c r="O28" s="35">
         <f t="shared" si="2"/>
-        <v>49.8</v>
+        <v>64.2</v>
       </c>
       <c r="P28" s="40"/>
       <c r="Q28" s="22"/>
     </row>
-    <row r="29" spans="1:17" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="25" customHeight="1">
       <c r="A29" s="6">
         <v>27</v>
       </c>
@@ -7127,21 +7119,21 @@
       <c r="E29" s="18">
         <v>90</v>
       </c>
-      <c r="F29" s="54">
+      <c r="F29" s="51">
         <v>90</v>
       </c>
       <c r="G29" s="40">
         <v>90</v>
       </c>
-      <c r="H29" s="58">
-        <v>0</v>
-      </c>
-      <c r="I29" s="58">
+      <c r="H29" s="54">
+        <v>60</v>
+      </c>
+      <c r="I29" s="54">
         <v>0</v>
       </c>
       <c r="J29" s="26">
         <f t="shared" si="0"/>
-        <v>16.2</v>
+        <v>19.8</v>
       </c>
       <c r="K29" s="40">
         <v>70</v>
@@ -7153,17 +7145,17 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="N29" s="52">
+      <c r="N29" s="49">
         <v>29</v>
       </c>
-      <c r="O29" s="55">
+      <c r="O29" s="35">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>61.599999999999994</v>
       </c>
       <c r="P29" s="40"/>
       <c r="Q29" s="22"/>
     </row>
-    <row r="30" spans="1:17" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="25" customHeight="1">
       <c r="A30" s="6">
         <v>28</v>
       </c>
@@ -7179,16 +7171,16 @@
       <c r="E30" s="18">
         <v>80</v>
       </c>
-      <c r="F30" s="54">
+      <c r="F30" s="51">
         <v>80</v>
       </c>
       <c r="G30" s="40">
         <v>80</v>
       </c>
-      <c r="H30" s="58">
+      <c r="H30" s="54">
         <v>0</v>
       </c>
-      <c r="I30" s="58">
+      <c r="I30" s="54">
         <v>0</v>
       </c>
       <c r="J30" s="26">
@@ -7205,17 +7197,17 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="N30" s="52">
+      <c r="N30" s="49">
         <v>20</v>
       </c>
-      <c r="O30" s="55">
+      <c r="O30" s="52">
         <f t="shared" si="2"/>
         <v>57.4</v>
       </c>
       <c r="P30" s="40"/>
       <c r="Q30" s="22"/>
     </row>
-    <row r="31" spans="1:17" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="25" customHeight="1">
       <c r="A31" s="6">
         <v>29</v>
       </c>
@@ -7231,16 +7223,16 @@
       <c r="E31" s="18">
         <v>90</v>
       </c>
-      <c r="F31" s="54">
+      <c r="F31" s="51">
         <v>90</v>
       </c>
       <c r="G31" s="40">
         <v>90</v>
       </c>
-      <c r="H31" s="58">
+      <c r="H31" s="54">
         <v>0</v>
       </c>
-      <c r="I31" s="58">
+      <c r="I31" s="54">
         <v>0</v>
       </c>
       <c r="J31" s="26">
@@ -7257,7 +7249,7 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="N31" s="52">
+      <c r="N31" s="49">
         <v>40</v>
       </c>
       <c r="O31" s="35">
@@ -7267,7 +7259,7 @@
       <c r="P31" s="40"/>
       <c r="Q31" s="22"/>
     </row>
-    <row r="32" spans="1:17" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="25" customHeight="1">
       <c r="A32" s="6">
         <v>30</v>
       </c>
@@ -7283,16 +7275,16 @@
       <c r="E32" s="18">
         <v>90</v>
       </c>
-      <c r="F32" s="59">
+      <c r="F32" s="55">
         <v>0</v>
       </c>
       <c r="G32" s="40">
         <v>90</v>
       </c>
-      <c r="H32" s="58">
+      <c r="H32" s="54">
         <v>0</v>
       </c>
-      <c r="I32" s="58">
+      <c r="I32" s="54">
         <v>0</v>
       </c>
       <c r="J32" s="26">
@@ -7312,14 +7304,14 @@
       <c r="N32" s="27">
         <v>65</v>
       </c>
-      <c r="O32" s="55">
+      <c r="O32" s="52">
         <f t="shared" si="2"/>
         <v>33.799999999999997</v>
       </c>
       <c r="P32" s="40"/>
       <c r="Q32" s="22"/>
     </row>
-    <row r="33" spans="1:17" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="25" customHeight="1">
       <c r="A33" s="6">
         <v>31</v>
       </c>
@@ -7371,7 +7363,7 @@
       <c r="P33" s="40"/>
       <c r="Q33" s="22"/>
     </row>
-    <row r="34" spans="1:17" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" ht="25" customHeight="1">
       <c r="A34" s="6">
         <v>32</v>
       </c>
@@ -7413,7 +7405,7 @@
         <f t="shared" si="1"/>
         <v>24.5</v>
       </c>
-      <c r="N34" s="52">
+      <c r="N34" s="49">
         <v>29</v>
       </c>
       <c r="O34" s="35">
@@ -7423,7 +7415,7 @@
       <c r="P34" s="40"/>
       <c r="Q34" s="22"/>
     </row>
-    <row r="35" spans="1:17" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" ht="25" customHeight="1">
       <c r="A35" s="6">
         <v>33</v>
       </c>
@@ -7465,7 +7457,7 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="N35" s="52">
+      <c r="N35" s="49">
         <v>53</v>
       </c>
       <c r="O35" s="35">
@@ -7486,6 +7478,66 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Invited_Students xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <IsNotebookLocked xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <Self_Registration_Enabled xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <FolderType xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <CultureName xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <Student_Groups xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Student_Groups>
+    <DefaultSectionNames xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <Templates xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <NotebookType xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <Teachers xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Teachers>
+    <TeamsChannelId xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <Invited_Teachers xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <Math_Settings xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <Has_Teacher_Only_SectionGroup xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <Owner xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <Students xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Students>
+    <Distribution_Groups xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <AppVersion xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <LMS_Mappings xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <Is_Collaboration_Space_Locked xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010033F188CDD829674AAD05B93C069E2813" ma:contentTypeVersion="25" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="12f87a5caa000e69b2f4c8c0b3e42f66">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="773ac416-4a36-402f-a3b6-d25dea329997" xmlns:ns4="63d2042b-7b91-46d4-baa3-a67d3669a720" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f06fb7f16fd173aa8b0bb68049ad5879" ns3:_="" ns4:_="">
     <xsd:import namespace="773ac416-4a36-402f-a3b6-d25dea329997"/>
@@ -7844,67 +7896,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8B63EFD-93A5-43DC-AEF0-DFD60352CEE8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="63d2042b-7b91-46d4-baa3-a67d3669a720"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="773ac416-4a36-402f-a3b6-d25dea329997"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Invited_Students xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <IsNotebookLocked xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <Self_Registration_Enabled xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <FolderType xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <CultureName xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <Student_Groups xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Student_Groups>
-    <DefaultSectionNames xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <Templates xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <NotebookType xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <Teachers xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Teachers>
-    <TeamsChannelId xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <Invited_Teachers xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <Math_Settings xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <Has_Teacher_Only_SectionGroup xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <Owner xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <Students xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Students>
-    <Distribution_Groups xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <AppVersion xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <LMS_Mappings xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <Is_Collaboration_Space_Locked xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1AFF0ECA-8F3D-4871-93DE-8F766A9E7256}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6741670B-461B-4661-A53C-BD46BBECF45E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7921,29 +7938,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1AFF0ECA-8F3D-4871-93DE-8F766A9E7256}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8B63EFD-93A5-43DC-AEF0-DFD60352CEE8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="63d2042b-7b91-46d4-baa3-a67d3669a720"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="773ac416-4a36-402f-a3b6-d25dea329997"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Arduino ProgrammingCourses Arrangement 应用电子32081.xlsx
+++ b/Arduino ProgrammingCourses Arrangement 应用电子32081.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/radiomanyi/Documents/GitHub/Arduino-Tutorial/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5D0429-08DB-A94B-A862-C4F991C7A637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301157D3-BB0C-1244-ADD5-48F7767DFF29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="2" xr2:uid="{56D46586-203F-4DA5-8833-0738A3BCF6C0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19780" activeTab="2" xr2:uid="{56D46586-203F-4DA5-8833-0738A3BCF6C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic Information 应用电子31981" sheetId="1" r:id="rId1"/>
@@ -452,18 +452,6 @@
     <t>Mr. Lv Guanhua,  Mr. Xu Dongjian,</t>
   </si>
   <si>
-    <t>Mr. Lv Guanhua, Mr.Shao Shuai, Mr. Yin Xinjun, Mr Zhang Lingjie,,Mr. Zhang Siyu, Mr. Zhou Geyu</t>
-  </si>
-  <si>
-    <t>Mr. Lv Guanhua,Mr. Ma Jiajun, Mr.Shao Shuai, Mr. Wu Kaiwen, Mr. Yin Xinjun, Mr Zhang Lingjie, Mr. Zhang Siyu, Mr. Zhou Geyu</t>
-  </si>
-  <si>
-    <t>27/34</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
     <t>31/34</t>
   </si>
   <si>
@@ -471,6 +459,18 @@
   </si>
   <si>
     <t>30/34</t>
+  </si>
+  <si>
+    <t>Mr. Lv Guanhua, Mr.Shao Shuai, Mr. Yin Xinjun, Mr Zhang Lingjie, Mr. Zhou Geyu</t>
+  </si>
+  <si>
+    <t>Mr. Lv Guanhua,Mr. Ma Jiajun, Mr.Shao Shuai, Mr. Wu Kaiwen, Mr. Yin Xinjun, Mr Zhang Lingjie, Mr. Zhou Geyu</t>
+  </si>
+  <si>
+    <t>28/34</t>
+  </si>
+  <si>
+    <t>26/34</t>
   </si>
 </sst>
 </file>
@@ -762,7 +762,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -931,6 +931,9 @@
     <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -940,7 +943,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1990,13 +1993,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="41" customHeight="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
     </row>
     <row r="2" spans="1:5" ht="21" customHeight="1">
       <c r="A2" s="9" t="s">
@@ -2484,35 +2487,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="23.5" customHeight="1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="57"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="58"/>
     </row>
     <row r="2" spans="1:28" ht="19.25" customHeight="1">
       <c r="A2" s="9" t="s">
@@ -5434,8 +5437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{375647A9-497B-42E5-BA71-EBD6FD4DD3F3}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -5450,15 +5453,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="46.5" customHeight="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
     </row>
     <row r="2" spans="1:7" ht="39" customHeight="1">
       <c r="A2" s="5" t="s">
@@ -5520,13 +5523,13 @@
         <v>107</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F4" s="47">
         <v>0.88</v>
       </c>
       <c r="G4" s="48" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="54.75" customHeight="1">
@@ -5543,7 +5546,7 @@
         <v>109</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F5" s="47">
         <v>0.91</v>
@@ -5566,13 +5569,13 @@
         <v>111</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F6" s="47">
-        <v>0.79</v>
+        <v>0.82</v>
       </c>
       <c r="G6" s="48" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="54.75" customHeight="1">
@@ -5589,13 +5592,13 @@
         <v>113</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F7" s="47">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
       <c r="G7" s="48" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="50" customHeight="1">
@@ -5657,8 +5660,8 @@
   </sheetPr>
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -5678,25 +5681,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="41" customHeight="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
     </row>
     <row r="2" spans="1:17" ht="66.75" customHeight="1">
       <c r="A2" s="5" t="s">
@@ -7067,16 +7070,16 @@
       <c r="E28" s="18">
         <v>90</v>
       </c>
-      <c r="F28" s="59">
+      <c r="F28" s="56">
         <v>60</v>
       </c>
-      <c r="G28" s="59">
+      <c r="G28" s="56">
         <v>60</v>
       </c>
-      <c r="H28" s="59">
+      <c r="H28" s="56">
         <v>60</v>
       </c>
-      <c r="I28" s="59">
+      <c r="I28" s="56">
         <v>60</v>
       </c>
       <c r="J28" s="26">
@@ -7125,7 +7128,7 @@
       <c r="G29" s="40">
         <v>90</v>
       </c>
-      <c r="H29" s="54">
+      <c r="H29" s="60">
         <v>60</v>
       </c>
       <c r="I29" s="54">
@@ -7229,15 +7232,15 @@
       <c r="G31" s="40">
         <v>90</v>
       </c>
-      <c r="H31" s="54">
-        <v>0</v>
-      </c>
-      <c r="I31" s="54">
-        <v>0</v>
+      <c r="H31" s="60">
+        <v>60</v>
+      </c>
+      <c r="I31" s="60">
+        <v>60</v>
       </c>
       <c r="J31" s="26">
         <f t="shared" si="0"/>
-        <v>16.2</v>
+        <v>23.4</v>
       </c>
       <c r="K31" s="40">
         <v>70</v>
@@ -7254,7 +7257,7 @@
       </c>
       <c r="O31" s="35">
         <f t="shared" si="2"/>
-        <v>60.2</v>
+        <v>67.400000000000006</v>
       </c>
       <c r="P31" s="40"/>
       <c r="Q31" s="22"/>
@@ -7478,6 +7481,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Invited_Students xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
@@ -7526,15 +7538,6 @@
     <Is_Collaboration_Space_Locked xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7897,6 +7900,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1AFF0ECA-8F3D-4871-93DE-8F766A9E7256}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8B63EFD-93A5-43DC-AEF0-DFD60352CEE8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -7909,14 +7920,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="773ac416-4a36-402f-a3b6-d25dea329997"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1AFF0ECA-8F3D-4871-93DE-8F766A9E7256}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Arduino ProgrammingCourses Arrangement 应用电子32081.xlsx
+++ b/Arduino ProgrammingCourses Arrangement 应用电子32081.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/radiomanyi/Documents/GitHub/Arduino-Tutorial/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301157D3-BB0C-1244-ADD5-48F7767DFF29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB58567B-319A-BA4A-BFE1-46DE3C7752EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19780" activeTab="2" xr2:uid="{56D46586-203F-4DA5-8833-0738A3BCF6C0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19760" activeTab="2" xr2:uid="{56D46586-203F-4DA5-8833-0738A3BCF6C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic Information 应用电子31981" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="131">
   <si>
     <t>Student ID(学号)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -437,40 +437,35 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>31/34</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mr. Ma Jiajun, Mr. Yin Xinjun</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Missing(Mr. Bian Zeyu absence from class) 33 intotal</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Mr. Lv Guanhua,  Mr. Xu Dongjian,</t>
-  </si>
-  <si>
-    <t>31/34</t>
-  </si>
-  <si>
     <t>Mr. Ma Jiajun, Mr. Wu Kaiwen, Mr. Zhou Geyu</t>
   </si>
   <si>
     <t>30/34</t>
   </si>
   <si>
-    <t>Mr. Lv Guanhua, Mr.Shao Shuai, Mr. Yin Xinjun, Mr Zhang Lingjie, Mr. Zhou Geyu</t>
-  </si>
-  <si>
-    <t>Mr. Lv Guanhua,Mr. Ma Jiajun, Mr.Shao Shuai, Mr. Wu Kaiwen, Mr. Yin Xinjun, Mr Zhang Lingjie, Mr. Zhou Geyu</t>
-  </si>
-  <si>
-    <t>28/34</t>
-  </si>
-  <si>
-    <t>26/34</t>
+    <t>27/34</t>
+  </si>
+  <si>
+    <t>29/34</t>
+  </si>
+  <si>
+    <t>32/34</t>
+  </si>
+  <si>
+    <t>Mr. Xu Dongjian,</t>
+  </si>
+  <si>
+    <t>Mr.Shao Shuai, Mr. Yin Xinjun, Mr Zhang Lingjie, Mr. Zhou Geyu</t>
+  </si>
+  <si>
+    <t>Mr. Ma Jiajun, Mr.Shao Shuai, Mr. Wu Kaiwen, Mr. Yin Xinjun, Mr Zhang Lingjie, Mr. Zhou Geyu</t>
+  </si>
+  <si>
+    <t>Mr. Ma Jiajun</t>
   </si>
 </sst>
 </file>
@@ -934,6 +929,9 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -941,9 +939,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1993,13 +1988,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="41" customHeight="1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
     </row>
     <row r="2" spans="1:5" ht="21" customHeight="1">
       <c r="A2" s="9" t="s">
@@ -2487,35 +2482,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="23.5" customHeight="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
     </row>
     <row r="2" spans="1:28" ht="19.25" customHeight="1">
       <c r="A2" s="9" t="s">
@@ -5438,7 +5433,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -5453,15 +5448,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="46.5" customHeight="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
     </row>
     <row r="2" spans="1:7" ht="39" customHeight="1">
       <c r="A2" s="5" t="s">
@@ -5483,7 +5478,7 @@
         <v>16</v>
       </c>
       <c r="G2" s="45" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="50" customHeight="1">
@@ -5500,13 +5495,13 @@
         <v>105</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F3" s="47">
-        <v>0.91</v>
+        <v>0.94</v>
       </c>
       <c r="G3" s="48" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="62.25" customHeight="1">
@@ -5523,13 +5518,13 @@
         <v>107</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F4" s="47">
         <v>0.88</v>
       </c>
       <c r="G4" s="48" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="54.75" customHeight="1">
@@ -5546,13 +5541,13 @@
         <v>109</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F5" s="47">
-        <v>0.91</v>
+        <v>0.94</v>
       </c>
       <c r="G5" s="48" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="54.75" customHeight="1">
@@ -5569,10 +5564,10 @@
         <v>111</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F6" s="47">
-        <v>0.82</v>
+        <v>0.85</v>
       </c>
       <c r="G6" s="48" t="s">
         <v>128</v>
@@ -5592,7 +5587,7 @@
         <v>113</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F7" s="47">
         <v>0.76</v>
@@ -5681,25 +5676,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="41" customHeight="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
     </row>
     <row r="2" spans="1:17" ht="66.75" customHeight="1">
       <c r="A2" s="5" t="s">
@@ -7128,7 +7123,7 @@
       <c r="G29" s="40">
         <v>90</v>
       </c>
-      <c r="H29" s="60">
+      <c r="H29" s="57">
         <v>60</v>
       </c>
       <c r="I29" s="54">
@@ -7232,10 +7227,10 @@
       <c r="G31" s="40">
         <v>90</v>
       </c>
-      <c r="H31" s="60">
+      <c r="H31" s="57">
         <v>60</v>
       </c>
-      <c r="I31" s="60">
+      <c r="I31" s="57">
         <v>60</v>
       </c>
       <c r="J31" s="26">
@@ -7490,57 +7485,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Invited_Students xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <IsNotebookLocked xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <Self_Registration_Enabled xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <FolderType xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <CultureName xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <Student_Groups xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Student_Groups>
-    <DefaultSectionNames xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <Templates xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <NotebookType xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <Teachers xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Teachers>
-    <TeamsChannelId xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <Invited_Teachers xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <Math_Settings xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <Has_Teacher_Only_SectionGroup xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <Owner xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <Students xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Students>
-    <Distribution_Groups xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <AppVersion xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <LMS_Mappings xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <Is_Collaboration_Space_Locked xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010033F188CDD829674AAD05B93C069E2813" ma:contentTypeVersion="25" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="12f87a5caa000e69b2f4c8c0b3e42f66">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="773ac416-4a36-402f-a3b6-d25dea329997" xmlns:ns4="63d2042b-7b91-46d4-baa3-a67d3669a720" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f06fb7f16fd173aa8b0bb68049ad5879" ns3:_="" ns4:_="">
     <xsd:import namespace="773ac416-4a36-402f-a3b6-d25dea329997"/>
@@ -7899,6 +7843,57 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Invited_Students xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <IsNotebookLocked xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <Self_Registration_Enabled xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <FolderType xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <CultureName xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <Student_Groups xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Student_Groups>
+    <DefaultSectionNames xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <Templates xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <NotebookType xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <Teachers xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Teachers>
+    <TeamsChannelId xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <Invited_Teachers xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <Math_Settings xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <Has_Teacher_Only_SectionGroup xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <Owner xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <Students xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Students>
+    <Distribution_Groups xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <AppVersion xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <LMS_Mappings xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <Is_Collaboration_Space_Locked xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1AFF0ECA-8F3D-4871-93DE-8F766A9E7256}">
   <ds:schemaRefs>
@@ -7908,23 +7903,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8B63EFD-93A5-43DC-AEF0-DFD60352CEE8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="63d2042b-7b91-46d4-baa3-a67d3669a720"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="773ac416-4a36-402f-a3b6-d25dea329997"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6741670B-461B-4661-A53C-BD46BBECF45E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7941,4 +7919,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8B63EFD-93A5-43DC-AEF0-DFD60352CEE8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="63d2042b-7b91-46d4-baa3-a67d3669a720"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="773ac416-4a36-402f-a3b6-d25dea329997"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Arduino ProgrammingCourses Arrangement 应用电子32081.xlsx
+++ b/Arduino ProgrammingCourses Arrangement 应用电子32081.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/radiomanyi/Documents/GitHub/Arduino-Tutorial/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo-InterOffice\Documents\GitHub\Arduino-Tutorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB58567B-319A-BA4A-BFE1-46DE3C7752EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAFCC65B-2BDD-4080-9CDA-0A812A6A2A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19760" activeTab="2" xr2:uid="{56D46586-203F-4DA5-8833-0738A3BCF6C0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{56D46586-203F-4DA5-8833-0738A3BCF6C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic Information 应用电子31981" sheetId="1" r:id="rId1"/>
@@ -473,14 +473,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="[$-1809]dd\ mmmm\ yyyy;@"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="176" formatCode="[$-1809]dd\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -488,13 +488,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -502,7 +502,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -518,7 +518,7 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -527,7 +527,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -542,7 +542,7 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -551,7 +551,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -574,7 +574,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -590,21 +590,21 @@
       <b/>
       <sz val="8"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -613,21 +613,21 @@
       <b/>
       <sz val="8"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -640,7 +640,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -654,20 +654,20 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -857,7 +857,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -899,7 +899,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -912,9 +912,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -941,9 +938,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1677,7 +1677,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1979,24 +1979,24 @@
       <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.6640625" customWidth="1"/>
     <col min="3" max="3" width="18.33203125" customWidth="1"/>
-    <col min="4" max="4" width="20.83203125" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" customWidth="1"/>
+    <col min="4" max="4" width="20.77734375" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="41" customHeight="1">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:5" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-    </row>
-    <row r="2" spans="1:5" ht="21" customHeight="1">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+    </row>
+    <row r="2" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
@@ -2013,7 +2013,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="20" customHeight="1">
+    <row r="3" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -2026,7 +2026,7 @@
       <c r="D3" s="36"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="20" customHeight="1">
+    <row r="4" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -2039,7 +2039,7 @@
       <c r="D4" s="36"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" ht="20" customHeight="1">
+    <row r="5" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -2052,7 +2052,7 @@
       <c r="D5" s="36"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="20" customHeight="1">
+    <row r="6" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -2065,7 +2065,7 @@
       <c r="D6" s="36"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" ht="20" customHeight="1">
+    <row r="7" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -2078,7 +2078,7 @@
       <c r="D7" s="36"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" ht="20" customHeight="1">
+    <row r="8" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -2091,7 +2091,7 @@
       <c r="D8" s="36"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" ht="20" customHeight="1">
+    <row r="9" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -2104,7 +2104,7 @@
       <c r="D9" s="36"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" ht="20" customHeight="1">
+    <row r="10" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -2117,7 +2117,7 @@
       <c r="D10" s="36"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" ht="20" customHeight="1">
+    <row r="11" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -2130,7 +2130,7 @@
       <c r="D11" s="36"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" ht="20" customHeight="1">
+    <row r="12" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -2143,7 +2143,7 @@
       <c r="D12" s="4"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" ht="20" customHeight="1">
+    <row r="13" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -2156,7 +2156,7 @@
       <c r="D13" s="36"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" ht="20" customHeight="1">
+    <row r="14" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -2169,7 +2169,7 @@
       <c r="D14" s="36"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" ht="20" customHeight="1">
+    <row r="15" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -2182,7 +2182,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" ht="20" customHeight="1">
+    <row r="16" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -2195,7 +2195,7 @@
       <c r="D16" s="36"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" ht="20" customHeight="1">
+    <row r="17" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -2208,7 +2208,7 @@
       <c r="D17" s="36"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" ht="20" customHeight="1">
+    <row r="18" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -2221,7 +2221,7 @@
       <c r="D18" s="36"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" ht="20" customHeight="1">
+    <row r="19" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -2234,7 +2234,7 @@
       <c r="D19" s="36"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" ht="20" customHeight="1">
+    <row r="20" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -2247,7 +2247,7 @@
       <c r="D20" s="36"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" ht="20" customHeight="1">
+    <row r="21" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -2260,7 +2260,7 @@
       <c r="D21" s="36"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" ht="20" customHeight="1">
+    <row r="22" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -2273,7 +2273,7 @@
       <c r="D22" s="36"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" ht="20" customHeight="1">
+    <row r="23" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -2286,7 +2286,7 @@
       <c r="D23" s="36"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" ht="20" customHeight="1">
+    <row r="24" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -2299,7 +2299,7 @@
       <c r="D24" s="36"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" ht="20" customHeight="1">
+    <row r="25" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -2312,7 +2312,7 @@
       <c r="D25" s="36"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" ht="20" customHeight="1">
+    <row r="26" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -2325,7 +2325,7 @@
       <c r="D26" s="36"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" ht="20" customHeight="1">
+    <row r="27" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -2338,7 +2338,7 @@
       <c r="D27" s="36"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" ht="20" customHeight="1">
+    <row r="28" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -2351,7 +2351,7 @@
       <c r="D28" s="36"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" ht="20" customHeight="1">
+    <row r="29" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -2364,7 +2364,7 @@
       <c r="D29" s="37"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" ht="20" customHeight="1">
+    <row r="30" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -2377,7 +2377,7 @@
       <c r="D30" s="38"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" ht="20" customHeight="1">
+    <row r="31" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -2390,7 +2390,7 @@
       <c r="D31" s="38"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:5" ht="20" customHeight="1">
+    <row r="32" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -2403,7 +2403,7 @@
       <c r="D32" s="38"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5" ht="20" customHeight="1">
+    <row r="33" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -2416,7 +2416,7 @@
       <c r="D33" s="38"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5" ht="20" customHeight="1">
+    <row r="34" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -2429,7 +2429,7 @@
       <c r="D34" s="38"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5" ht="20" customHeight="1">
+    <row r="35" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -2442,7 +2442,7 @@
       <c r="D35" s="38"/>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="1:5" ht="20" customHeight="1">
+    <row r="36" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -2474,45 +2474,45 @@
       <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="27" width="3.5" customWidth="1"/>
+    <col min="4" max="27" width="3.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="23.5" customHeight="1">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:28" ht="23.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-    </row>
-    <row r="2" spans="1:28" ht="19.25" customHeight="1">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="58"/>
+    </row>
+    <row r="2" spans="1:28" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
@@ -2596,7 +2596,7 @@
       </c>
       <c r="AB2" s="1"/>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:28" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:28" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -2845,7 +2845,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:28" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:28" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:28" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -3094,7 +3094,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:28" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -3177,7 +3177,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:28" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -3260,7 +3260,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:28" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:28" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:28" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -3509,7 +3509,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:28" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:28" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -3675,7 +3675,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:28" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -3758,7 +3758,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:27" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:27" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -3924,7 +3924,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:27" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -4007,7 +4007,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:27" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -4090,7 +4090,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:27" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -4173,7 +4173,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:27" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -4256,7 +4256,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:27" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -4339,7 +4339,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:27" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -4422,7 +4422,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:27" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:27" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -4588,7 +4588,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:27" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -4671,7 +4671,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="1:27" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -4754,7 +4754,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:27">
+    <row r="29" spans="1:27" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -4837,7 +4837,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:27">
+    <row r="30" spans="1:27" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -4920,7 +4920,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:27">
+    <row r="31" spans="1:27" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -5003,7 +5003,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="1:27">
+    <row r="32" spans="1:27" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -5086,7 +5086,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:27">
+    <row r="33" spans="1:27" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:27">
+    <row r="34" spans="1:27" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -5252,7 +5252,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="1:27">
+    <row r="35" spans="1:27" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -5335,7 +5335,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:27">
+    <row r="36" spans="1:27" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -5432,33 +5432,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{375647A9-497B-42E5-BA71-EBD6FD4DD3F3}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+    <sheetView zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="2" width="17.6640625" customWidth="1"/>
     <col min="3" max="3" width="20.33203125" customWidth="1"/>
     <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" customWidth="1"/>
-    <col min="7" max="7" width="131.5" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" customWidth="1"/>
+    <col min="7" max="7" width="131.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="46.5" customHeight="1">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-    </row>
-    <row r="2" spans="1:7" ht="39" customHeight="1">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+    </row>
+    <row r="2" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
@@ -5481,7 +5481,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="50" customHeight="1">
+    <row r="3" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -5504,7 +5504,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="62.25" customHeight="1">
+    <row r="4" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -5527,7 +5527,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="54.75" customHeight="1">
+    <row r="5" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -5550,7 +5550,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="54.75" customHeight="1">
+    <row r="6" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -5573,7 +5573,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="54.75" customHeight="1">
+    <row r="7" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -5596,7 +5596,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="50" customHeight="1">
+    <row r="8" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>4</v>
       </c>
@@ -5617,7 +5617,7 @@
       </c>
       <c r="G8" s="46"/>
     </row>
-    <row r="9" spans="1:7" ht="50" customHeight="1">
+    <row r="9" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>5</v>
       </c>
@@ -5655,48 +5655,48 @@
   </sheetPr>
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" customWidth="1"/>
-    <col min="3" max="3" width="7.83203125" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="7.77734375" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" style="21" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" style="20" customWidth="1"/>
     <col min="6" max="9" width="10.33203125" style="21" customWidth="1"/>
-    <col min="10" max="10" width="10.5" style="21" customWidth="1"/>
-    <col min="11" max="12" width="8.83203125" style="21" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" style="21" customWidth="1"/>
+    <col min="11" max="12" width="8.77734375" style="21" customWidth="1"/>
     <col min="13" max="13" width="10.6640625" style="20" customWidth="1"/>
     <col min="14" max="14" width="9.6640625" style="20" customWidth="1"/>
     <col min="15" max="16" width="10.6640625" style="20" customWidth="1"/>
     <col min="17" max="17" width="44.33203125" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="41" customHeight="1">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:17" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-    </row>
-    <row r="2" spans="1:17" ht="66.75" customHeight="1">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+    </row>
+    <row r="2" spans="1:17" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -5749,7 +5749,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="25" customHeight="1">
+    <row r="3" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -5801,7 +5801,7 @@
       <c r="P3" s="29"/>
       <c r="Q3" s="22"/>
     </row>
-    <row r="4" spans="1:17" ht="25" customHeight="1">
+    <row r="4" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -5853,7 +5853,7 @@
       <c r="P4" s="30"/>
       <c r="Q4" s="22"/>
     </row>
-    <row r="5" spans="1:17" ht="25" customHeight="1">
+    <row r="5" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -5905,7 +5905,7 @@
       <c r="P5" s="30"/>
       <c r="Q5" s="22"/>
     </row>
-    <row r="6" spans="1:17" ht="25" customHeight="1">
+    <row r="6" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -5957,7 +5957,7 @@
       <c r="P6" s="30"/>
       <c r="Q6" s="22"/>
     </row>
-    <row r="7" spans="1:17" ht="25" customHeight="1">
+    <row r="7" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -6009,7 +6009,7 @@
       <c r="P7" s="30"/>
       <c r="Q7" s="22"/>
     </row>
-    <row r="8" spans="1:17" ht="25" customHeight="1">
+    <row r="8" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -6061,7 +6061,7 @@
       <c r="P8" s="30"/>
       <c r="Q8" s="22"/>
     </row>
-    <row r="9" spans="1:17" ht="25" customHeight="1">
+    <row r="9" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -6113,7 +6113,7 @@
       <c r="P9" s="30"/>
       <c r="Q9" s="22"/>
     </row>
-    <row r="10" spans="1:17" ht="25" customHeight="1">
+    <row r="10" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -6165,7 +6165,7 @@
       <c r="P10" s="30"/>
       <c r="Q10" s="25"/>
     </row>
-    <row r="11" spans="1:17" ht="25" customHeight="1">
+    <row r="11" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -6217,7 +6217,7 @@
       <c r="P11" s="30"/>
       <c r="Q11" s="22"/>
     </row>
-    <row r="12" spans="1:17" ht="25" customHeight="1">
+    <row r="12" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -6269,7 +6269,7 @@
       <c r="P12" s="30"/>
       <c r="Q12" s="22"/>
     </row>
-    <row r="13" spans="1:17" ht="25" customHeight="1">
+    <row r="13" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -6321,7 +6321,7 @@
       <c r="P13" s="30"/>
       <c r="Q13" s="22"/>
     </row>
-    <row r="14" spans="1:17" ht="25" customHeight="1">
+    <row r="14" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -6373,7 +6373,7 @@
       <c r="P14" s="30"/>
       <c r="Q14" s="22"/>
     </row>
-    <row r="15" spans="1:17" ht="25" customHeight="1">
+    <row r="15" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>13</v>
       </c>
@@ -6425,7 +6425,7 @@
       <c r="P15" s="30"/>
       <c r="Q15" s="22"/>
     </row>
-    <row r="16" spans="1:17" ht="25" customHeight="1">
+    <row r="16" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>14</v>
       </c>
@@ -6445,17 +6445,17 @@
         <v>90</v>
       </c>
       <c r="G16" s="18">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H16" s="18">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I16" s="18">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J16" s="26">
         <f t="shared" si="0"/>
-        <v>10.799999999999999</v>
+        <v>21.599999999999998</v>
       </c>
       <c r="K16" s="18">
         <v>70</v>
@@ -6470,14 +6470,14 @@
       <c r="N16" s="49">
         <v>52</v>
       </c>
-      <c r="O16" s="52">
+      <c r="O16" s="60">
         <f t="shared" si="2"/>
-        <v>57.199999999999996</v>
+        <v>68</v>
       </c>
       <c r="P16" s="30"/>
       <c r="Q16" s="22"/>
     </row>
-    <row r="17" spans="1:17" ht="25" customHeight="1">
+    <row r="17" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>15</v>
       </c>
@@ -6529,7 +6529,7 @@
       <c r="P17" s="30"/>
       <c r="Q17" s="22"/>
     </row>
-    <row r="18" spans="1:17" ht="25" customHeight="1">
+    <row r="18" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>16</v>
       </c>
@@ -6542,10 +6542,10 @@
       <c r="D18" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="E18" s="53">
+      <c r="E18" s="52">
         <v>0</v>
       </c>
-      <c r="F18" s="53">
+      <c r="F18" s="52">
         <v>0</v>
       </c>
       <c r="G18" s="18">
@@ -6581,7 +6581,7 @@
       <c r="P18" s="30"/>
       <c r="Q18" s="22"/>
     </row>
-    <row r="19" spans="1:17" ht="25" customHeight="1">
+    <row r="19" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>17</v>
       </c>
@@ -6603,10 +6603,10 @@
       <c r="G19" s="43">
         <v>90</v>
       </c>
-      <c r="H19" s="53">
+      <c r="H19" s="52">
         <v>0</v>
       </c>
-      <c r="I19" s="53">
+      <c r="I19" s="52">
         <v>0</v>
       </c>
       <c r="J19" s="26">
@@ -6633,7 +6633,7 @@
       <c r="P19" s="30"/>
       <c r="Q19" s="22"/>
     </row>
-    <row r="20" spans="1:17" ht="25" customHeight="1">
+    <row r="20" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>18</v>
       </c>
@@ -6685,7 +6685,7 @@
       <c r="P20" s="30"/>
       <c r="Q20" s="22"/>
     </row>
-    <row r="21" spans="1:17" ht="25" customHeight="1">
+    <row r="21" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>19</v>
       </c>
@@ -6737,7 +6737,7 @@
       <c r="P21" s="30"/>
       <c r="Q21" s="22"/>
     </row>
-    <row r="22" spans="1:17" ht="25" customHeight="1">
+    <row r="22" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>20</v>
       </c>
@@ -6789,7 +6789,7 @@
       <c r="P22" s="30"/>
       <c r="Q22" s="22"/>
     </row>
-    <row r="23" spans="1:17" ht="25" customHeight="1">
+    <row r="23" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>21</v>
       </c>
@@ -6841,7 +6841,7 @@
       <c r="P23" s="30"/>
       <c r="Q23" s="22"/>
     </row>
-    <row r="24" spans="1:17" ht="25" customHeight="1">
+    <row r="24" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>22</v>
       </c>
@@ -6893,7 +6893,7 @@
       <c r="P24" s="30"/>
       <c r="Q24" s="22"/>
     </row>
-    <row r="25" spans="1:17" ht="25" customHeight="1">
+    <row r="25" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>23</v>
       </c>
@@ -6945,7 +6945,7 @@
       <c r="P25" s="30"/>
       <c r="Q25" s="22"/>
     </row>
-    <row r="26" spans="1:17" ht="25" customHeight="1">
+    <row r="26" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>24</v>
       </c>
@@ -6964,7 +6964,7 @@
       <c r="F26" s="18">
         <v>90</v>
       </c>
-      <c r="G26" s="53">
+      <c r="G26" s="52">
         <v>0</v>
       </c>
       <c r="H26" s="18">
@@ -6997,7 +6997,7 @@
       <c r="P26" s="30"/>
       <c r="Q26" s="22"/>
     </row>
-    <row r="27" spans="1:17" ht="25" customHeight="1">
+    <row r="27" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>25</v>
       </c>
@@ -7049,7 +7049,7 @@
       <c r="P27" s="30"/>
       <c r="Q27" s="22"/>
     </row>
-    <row r="28" spans="1:17" ht="25" customHeight="1">
+    <row r="28" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>26</v>
       </c>
@@ -7065,16 +7065,16 @@
       <c r="E28" s="18">
         <v>90</v>
       </c>
-      <c r="F28" s="56">
+      <c r="F28" s="55">
         <v>60</v>
       </c>
-      <c r="G28" s="56">
+      <c r="G28" s="55">
         <v>60</v>
       </c>
-      <c r="H28" s="56">
+      <c r="H28" s="55">
         <v>60</v>
       </c>
-      <c r="I28" s="56">
+      <c r="I28" s="55">
         <v>60</v>
       </c>
       <c r="J28" s="26">
@@ -7101,7 +7101,7 @@
       <c r="P28" s="40"/>
       <c r="Q28" s="22"/>
     </row>
-    <row r="29" spans="1:17" ht="25" customHeight="1">
+    <row r="29" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>27</v>
       </c>
@@ -7123,37 +7123,37 @@
       <c r="G29" s="40">
         <v>90</v>
       </c>
-      <c r="H29" s="57">
-        <v>60</v>
-      </c>
-      <c r="I29" s="54">
+      <c r="H29" s="53">
+        <v>0</v>
+      </c>
+      <c r="I29" s="53">
         <v>0</v>
       </c>
       <c r="J29" s="26">
         <f t="shared" si="0"/>
-        <v>19.8</v>
+        <v>16.2</v>
       </c>
       <c r="K29" s="40">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="L29" s="19">
         <v>5</v>
       </c>
       <c r="M29" s="26">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>27.5</v>
       </c>
       <c r="N29" s="49">
         <v>29</v>
       </c>
-      <c r="O29" s="35">
+      <c r="O29" s="60">
         <f t="shared" si="2"/>
-        <v>61.599999999999994</v>
+        <v>59.5</v>
       </c>
       <c r="P29" s="40"/>
       <c r="Q29" s="22"/>
     </row>
-    <row r="30" spans="1:17" ht="25" customHeight="1">
+    <row r="30" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>28</v>
       </c>
@@ -7167,7 +7167,7 @@
         <v>98</v>
       </c>
       <c r="E30" s="18">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F30" s="51">
         <v>80</v>
@@ -7175,37 +7175,37 @@
       <c r="G30" s="40">
         <v>80</v>
       </c>
-      <c r="H30" s="54">
+      <c r="H30" s="53">
         <v>0</v>
       </c>
-      <c r="I30" s="54">
+      <c r="I30" s="53">
         <v>0</v>
       </c>
       <c r="J30" s="26">
         <f t="shared" si="0"/>
-        <v>14.399999999999999</v>
+        <v>15</v>
       </c>
       <c r="K30" s="40">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L30" s="19">
         <v>5</v>
       </c>
       <c r="M30" s="26">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>30.5</v>
       </c>
       <c r="N30" s="49">
         <v>20</v>
       </c>
-      <c r="O30" s="52">
+      <c r="O30" s="60">
         <f t="shared" si="2"/>
-        <v>57.4</v>
+        <v>59.5</v>
       </c>
       <c r="P30" s="40"/>
       <c r="Q30" s="22"/>
     </row>
-    <row r="31" spans="1:17" ht="25" customHeight="1">
+    <row r="31" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>29</v>
       </c>
@@ -7227,10 +7227,10 @@
       <c r="G31" s="40">
         <v>90</v>
       </c>
-      <c r="H31" s="57">
+      <c r="H31" s="56">
         <v>60</v>
       </c>
-      <c r="I31" s="57">
+      <c r="I31" s="56">
         <v>60</v>
       </c>
       <c r="J31" s="26">
@@ -7257,7 +7257,7 @@
       <c r="P31" s="40"/>
       <c r="Q31" s="22"/>
     </row>
-    <row r="32" spans="1:17" ht="25" customHeight="1">
+    <row r="32" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>30</v>
       </c>
@@ -7273,16 +7273,16 @@
       <c r="E32" s="18">
         <v>90</v>
       </c>
-      <c r="F32" s="55">
+      <c r="F32" s="54">
         <v>0</v>
       </c>
       <c r="G32" s="40">
         <v>90</v>
       </c>
-      <c r="H32" s="54">
+      <c r="H32" s="53">
         <v>0</v>
       </c>
-      <c r="I32" s="54">
+      <c r="I32" s="53">
         <v>0</v>
       </c>
       <c r="J32" s="26">
@@ -7290,26 +7290,26 @@
         <v>10.799999999999999</v>
       </c>
       <c r="K32" s="40">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="L32" s="19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M32" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="N32" s="27">
         <v>65</v>
       </c>
-      <c r="O32" s="52">
+      <c r="O32" s="60">
         <f t="shared" si="2"/>
-        <v>33.799999999999997</v>
+        <v>59.8</v>
       </c>
       <c r="P32" s="40"/>
       <c r="Q32" s="22"/>
     </row>
-    <row r="33" spans="1:17" ht="25" customHeight="1">
+    <row r="33" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>31</v>
       </c>
@@ -7361,7 +7361,7 @@
       <c r="P33" s="40"/>
       <c r="Q33" s="22"/>
     </row>
-    <row r="34" spans="1:17" ht="25" customHeight="1">
+    <row r="34" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>32</v>
       </c>
@@ -7413,7 +7413,7 @@
       <c r="P34" s="40"/>
       <c r="Q34" s="22"/>
     </row>
-    <row r="35" spans="1:17" ht="25" customHeight="1">
+    <row r="35" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>33</v>
       </c>
@@ -7476,12 +7476,54 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Invited_Students xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <IsNotebookLocked xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <Self_Registration_Enabled xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <FolderType xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <CultureName xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <Student_Groups xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Student_Groups>
+    <DefaultSectionNames xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <Templates xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <NotebookType xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <Teachers xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Teachers>
+    <TeamsChannelId xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <Invited_Teachers xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <Math_Settings xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <Has_Teacher_Only_SectionGroup xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <Owner xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <Students xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Students>
+    <Distribution_Groups xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <AppVersion xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <LMS_Mappings xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <Is_Collaboration_Space_Locked xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7844,60 +7886,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Invited_Students xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <IsNotebookLocked xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <Self_Registration_Enabled xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <FolderType xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <CultureName xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <Student_Groups xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Student_Groups>
-    <DefaultSectionNames xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <Templates xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <NotebookType xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <Teachers xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Teachers>
-    <TeamsChannelId xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <Invited_Teachers xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <Math_Settings xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <Has_Teacher_Only_SectionGroup xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <Owner xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <Students xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Students>
-    <Distribution_Groups xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <AppVersion xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <LMS_Mappings xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <Is_Collaboration_Space_Locked xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1AFF0ECA-8F3D-4871-93DE-8F766A9E7256}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8B63EFD-93A5-43DC-AEF0-DFD60352CEE8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="63d2042b-7b91-46d4-baa3-a67d3669a720"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="773ac416-4a36-402f-a3b6-d25dea329997"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7922,18 +7931,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8B63EFD-93A5-43DC-AEF0-DFD60352CEE8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1AFF0ECA-8F3D-4871-93DE-8F766A9E7256}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="63d2042b-7b91-46d4-baa3-a67d3669a720"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="773ac416-4a36-402f-a3b6-d25dea329997"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>